--- a/Image_Metadata/sources_metadata.xlsx
+++ b/Image_Metadata/sources_metadata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2547,27 +2547,27 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>USSGuardianWreck</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>8706</v>
+        <v>990</v>
       </c>
       <c r="D86" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E86" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="87">
@@ -2576,23 +2576,23 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>USSGuardianWreck</t>
+          <t>Vamizi</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>990</v>
+        <v>299</v>
       </c>
       <c r="D87" t="n">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="E87" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>1501</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
@@ -2601,23 +2601,23 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Vamizi</t>
+          <t>Vavau</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>299</v>
+        <v>3880</v>
       </c>
       <c r="D88" t="n">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="E88" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -2626,71 +2626,71 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Vavau</t>
+          <t>Villingili</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3880</v>
+        <v>21</v>
       </c>
       <c r="D89" t="n">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Villingili</t>
+          <t>WAPA_Interns</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>21</v>
+        <v>762</v>
       </c>
       <c r="D90" t="n">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2296.5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>WAPA_Interns</t>
+          <t>WAPA_RFM</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>762</v>
+        <v>2542</v>
       </c>
       <c r="D91" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E91" t="n">
         <v>50</v>
       </c>
       <c r="F91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G91" t="n">
-        <v>2296.5</v>
+        <v>6269.166666666667</v>
       </c>
     </row>
     <row r="92">
@@ -2699,39 +2699,39 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>WAPA_RFM</t>
+          <t>Waikiki</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2506</v>
+        <v>96</v>
       </c>
       <c r="D92" t="n">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="E92" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F92" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>6175</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Waikiki</t>
+          <t>WorkshopTest</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D93" t="n">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E93" t="n">
         <v>25</v>
@@ -2740,23 +2740,23 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>WorkshopTest</t>
+          <t>fairlight_2014</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D94" t="n">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="E94" t="n">
         <v>25</v>
@@ -2765,106 +2765,81 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>fairlight_2014</t>
+          <t>milo</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E95" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>milo</t>
+          <t>nash</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>nash</t>
+          <t>test_archipelago.set_marker.determination</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E97" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>test_archipelago.set_marker.determination</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>2</v>
-      </c>
-      <c r="D98" t="n">
-        <v>23</v>
-      </c>
-      <c r="E98" t="n">
-        <v>20</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" t="n">
         <v>24</v>
       </c>
     </row>
